--- a/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
+++ b/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\丧尸危机复刻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CAB214-8B08-48D1-BB4F-6966F396854B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F955D4-2643-4FFD-AC0D-8A4008F26BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="经典4方向版" sheetId="1" r:id="rId1"/>
-    <sheet name="自由移动版" sheetId="2" r:id="rId2"/>
-    <sheet name="DCC对比" sheetId="3" r:id="rId3"/>
+    <sheet name="僵尸危机3" sheetId="4" r:id="rId2"/>
+    <sheet name="自由移动版" sheetId="2" r:id="rId3"/>
+    <sheet name="DCC对比" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +362,573 @@
   </si>
   <si>
     <t>LZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制运动线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速高伤武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速射低伤武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本低伤武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速射高伤武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射型爆炸武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷型爆炸武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistol手枪：一开始就有，子弹无限，射程有限。强化后可以连发</t>
+  </si>
+  <si>
+    <r>
+      <t>UZI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冲锋枪：子弹一开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发，强化后是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发，射程无限，可以连发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Shotgun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>霰弹枪：可以一下打一片，一开始是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发，强化后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发，射程有限，强化后可连发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Barrel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汽油桶：放下后可以用武器引爆，威力极大，但是要当心自己被炸死</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Grenade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手雷：扔出后会爆炸，一开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枚，强化后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枚。强化后会炸成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个，再次爆炸。长按射击键可蓄力，扔的更远</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Walls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>墙：可以用来堵路，一开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个，强化后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Claymore(Mine)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地雷：放下后敌人踩到延迟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒爆炸，威力和手雷一样，强化后也会炸成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个小雷再爆炸。一开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个，强化后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rocket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火箭：发射后撞到物体会爆炸。射程极大接近无限，但不是无限。用这个要当行炸死自己。一开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法，强化后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发。强化后可连发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Charge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定时炸弹：按一下射击键放置，再按一下就会引爆，威力和地雷一样，强化后也会炸成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个小雷再爆炸。一开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个，强化后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Railgun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>激光枪：可对一条线上的敌人造成伤害，射程很大但不是无限。威力不大，强化后可连发。一开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发，强化后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +936,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +968,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -422,10 +1003,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -800,18 +1382,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="13.25" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="18" max="18" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,11 +1408,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -831,25 +1420,55 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -1005,6 +1624,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA140BB2-0D19-4C00-9BC5-1CF71D1058A5}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86419146-03BC-4EA1-A538-CB6AAEE53180}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1017,11 +1708,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0A54A-91A3-4E39-A25C-719811B0498E}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
+++ b/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\丧尸危机复刻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F955D4-2643-4FFD-AC0D-8A4008F26BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD39BC8-A05A-4AE0-BB14-6F8D12B11760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="经典4方向版" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
   <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -929,6 +929,18 @@
       </rPr>
       <t>发</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时按键测试https://www.xem.us/rollover/rollover.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typematic delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住时,后续信号会有延迟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1382,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1597,7 +1609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1605,14 +1617,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA140BB2-0D19-4C00-9BC5-1CF71D1058A5}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
+++ b/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\丧尸危机复刻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD39BC8-A05A-4AE0-BB14-6F8D12B11760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68385EBF-D5DB-4677-B50F-C1F3101FF5FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="经典4方向版" sheetId="1" r:id="rId1"/>
-    <sheet name="僵尸危机3" sheetId="4" r:id="rId2"/>
+    <sheet name="僵尸危机3" sheetId="4" r:id="rId1"/>
+    <sheet name="经典8方向版" sheetId="1" r:id="rId2"/>
     <sheet name="自由移动版" sheetId="2" r:id="rId3"/>
     <sheet name="DCC对比" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -27,8 +27,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A57" authorId="0" shapeId="0" xr:uid="{C5A5BCC3-A40C-469E-B532-EB1414388E03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果为true，操作系统发送的类似输入事件将被累积。当输入累积被启用时，在一个帧中生成的所有输入事件将被合并，并在帧完成呈现时发出。因此，这将每秒的输入法调用数量限制为渲染FPS。
+可以禁用输入积累，以增加CPU使用为代价获得稍微更精确/反应性的输入。在需要徒手绘制线条的应用程序中，通常应在用户绘制线条时禁用输入累积，以获得紧跟其后的结果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="145">
   <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -941,6 +978,158 @@
   </si>
   <si>
     <t>按住时,后续信号会有延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的:尽量把瞬间方向变换抵消,但保留操作敏捷度.而且改变方向的瞬间不移动(手感更好,瞄准时不易出现误操作).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在帧中进行验证缓冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1按下事件-&gt;立即动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2抬起事件-&gt;立即停-&gt;向量为0-&gt;完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2抬起事件-&gt;立即停-&gt;向量不为0-&gt;等待n帧向量不变-&gt;使用向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3动:方向相同-&gt;沿向量移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3动:方向不同-&gt;转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一帧没动,所以仍然会有少量移动,这是可接受的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一定几帧,这里为n帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4转向-&gt;需要n帧方向相同-&gt;沿向量移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有延迟或不生效的问题,尝试设置 Input.use_accumulated_input(默认为true,每帧内的输入会被合并)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多停一会,且没有更多输入的话,不会移动.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般3帧就行(60fps)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方向移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是加了也会有少量偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2是3D的move_and_slider会让旋转改变,导致-1方向的判断很难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后采用方法,n帧检测(2-3帧/60物理fps),不带转向停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控地雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遮挡透明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单实用,延迟可接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没用上边方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方向移动策略[弃用]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCC工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按名称设置deform选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对替换自定义图形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取自定义图形为物体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先确定画面占比再制作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,7 +1137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,13 +1182,54 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1011,19 +1241,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1393,16 +1633,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA140BB2-0D19-4C00-9BC5-1CF71D1058A5}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="13" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="14" width="14.875" customWidth="1"/>
@@ -1412,7 +1725,7 @@
     <col min="18" max="18" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,11 +1733,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -1432,60 +1745,65 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="H15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" t="s">
         <v>90</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>88</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>89</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>92</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1493,151 +1811,299 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="J28" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="J29" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="J30" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>105</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" t="s">
+        <v>137</v>
+      </c>
+      <c r="K59" t="s">
+        <v>125</v>
+      </c>
+      <c r="N59" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1645,78 +2111,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA140BB2-0D19-4C00-9BC5-1CF71D1058A5}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
+++ b/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\丧尸危机复刻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD39BC8-A05A-4AE0-BB14-6F8D12B11760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7334CE-4D6D-4ABB-BA66-041DCA36DC52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="经典4方向版" sheetId="1" r:id="rId1"/>
-    <sheet name="僵尸危机3" sheetId="4" r:id="rId2"/>
+    <sheet name="僵尸危机3" sheetId="4" r:id="rId1"/>
+    <sheet name="经典8方向版" sheetId="1" r:id="rId2"/>
     <sheet name="自由移动版" sheetId="2" r:id="rId3"/>
     <sheet name="DCC对比" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -27,8 +27,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A54" authorId="0" shapeId="0" xr:uid="{C5A5BCC3-A40C-469E-B532-EB1414388E03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果为true，操作系统发送的类似输入事件将被累积。当输入累积被启用时，在一个帧中生成的所有输入事件将被合并，并在帧完成呈现时发出。因此，这将每秒的输入法调用数量限制为渲染FPS。
+可以禁用输入积累，以增加CPU使用为代价获得稍微更精确/反应性的输入。在需要徒手绘制线条的应用程序中，通常应在用户绘制线条时禁用输入累积，以获得紧跟其后的结果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
   <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -941,6 +978,62 @@
   </si>
   <si>
     <t>按住时,后续信号会有延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方向移动策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的:尽量把瞬间方向变换抵消,但保留操作敏捷度.而且改变方向的瞬间不移动(手感更好,瞄准时不易出现误操作).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在帧中进行验证缓冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1按下事件-&gt;立即动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2抬起事件-&gt;立即停-&gt;向量为0-&gt;完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2抬起事件-&gt;立即停-&gt;向量不为0-&gt;等待n帧向量不变-&gt;使用向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3动:方向相同-&gt;沿向量移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3动:方向不同-&gt;转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一帧没动,所以仍然会有少量移动,这是可接受的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一定几帧,这里为n帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4转向-&gt;需要n帧方向相同-&gt;沿向量移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有延迟或不生效的问题,尝试设置 Input.use_accumulated_input(默认为true,每帧内的输入会被合并)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多停一会,且没有更多输入的话,不会移动.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般3帧就行(60fps)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,7 +1041,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1084,21 @@
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1393,11 +1501,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA140BB2-0D19-4C00-9BC5-1CF71D1058A5}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1609,7 +1789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1617,27 +1797,89 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
       <c r="C42" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1645,78 +1887,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA140BB2-0D19-4C00-9BC5-1CF71D1058A5}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
+++ b/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\丧尸危机复刻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7334CE-4D6D-4ABB-BA66-041DCA36DC52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68385EBF-D5DB-4677-B50F-C1F3101FF5FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A54" authorId="0" shapeId="0" xr:uid="{C5A5BCC3-A40C-469E-B532-EB1414388E03}">
+    <comment ref="A57" authorId="0" shapeId="0" xr:uid="{C5A5BCC3-A40C-469E-B532-EB1414388E03}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="145">
   <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -981,10 +981,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>八方向移动策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目的:尽量把瞬间方向变换抵消,但保留操作敏捷度.而且改变方向的瞬间不移动(手感更好,瞄准时不易出现误操作).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1034,6 +1030,106 @@
   </si>
   <si>
     <t>一般3帧就行(60fps)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方向移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是加了也会有少量偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2是3D的move_and_slider会让旋转改变,导致-1方向的判断很难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后采用方法,n帧检测(2-3帧/60物理fps),不带转向停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控地雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遮挡透明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单实用,延迟可接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没用上边方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方向移动策略[弃用]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCC工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按名称设置deform选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对替换自定义图形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取自定义图形为物体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先确定画面占比再制作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1041,7 +1137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,13 +1197,39 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1119,19 +1241,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1574,15 +1706,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="13" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="14" width="14.875" customWidth="1"/>
@@ -1592,7 +1725,7 @@
     <col min="18" max="18" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1600,11 +1733,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -1612,60 +1745,65 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="H15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" t="s">
         <v>90</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>88</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>89</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>92</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1673,213 +1811,299 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="J28" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="J29" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="J30" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>105</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>109</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>116</v>
       </c>
-      <c r="F46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>117</v>
       </c>
-      <c r="E52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>118</v>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" t="s">
+        <v>137</v>
+      </c>
+      <c r="K59" t="s">
+        <v>125</v>
+      </c>
+      <c r="N59" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
+++ b/_sync/游戏开发/丧尸危机复刻/简单策划案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\丧尸危机复刻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68385EBF-D5DB-4677-B50F-C1F3101FF5FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD5C87-5AD2-4669-B894-6A850FE3D015}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="僵尸危机3" sheetId="4" r:id="rId1"/>
     <sheet name="经典8方向版" sheetId="1" r:id="rId2"/>
     <sheet name="自由移动版" sheetId="2" r:id="rId3"/>
-    <sheet name="DCC对比" sheetId="3" r:id="rId4"/>
+    <sheet name="技术方案" sheetId="5" r:id="rId4"/>
+    <sheet name="DCC对比" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A57" authorId="0" shapeId="0" xr:uid="{C5A5BCC3-A40C-469E-B532-EB1414388E03}">
+    <comment ref="A60" authorId="0" shapeId="0" xr:uid="{C5A5BCC3-A40C-469E-B532-EB1414388E03}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
   <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1130,6 +1131,71 @@
   </si>
   <si>
     <t>先确定画面占比再制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Godot 中的二维动画轨迹线（有碰撞！）</t>
+  </si>
+  <si>
+    <t>RayCast3D</t>
+  </si>
+  <si>
+    <t>简单易行的射线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RigidBody3D</t>
+  </si>
+  <si>
+    <t>带有碰撞和推动的角色解决方案.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(已改为rigidbody来支持相互碰撞和推动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待机x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面出生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速创建空间转换物体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选手动设置action时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,8 +1279,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1231,6 +1312,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1241,7 +1327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1250,16 +1336,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="4" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
@@ -1333,7 +1425,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>656886</xdr:colOff>
+      <xdr:colOff>523536</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>161724</xdr:rowOff>
     </xdr:to>
@@ -1706,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1717,6 +1809,7 @@
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
     <col min="13" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="14" width="14.875" customWidth="1"/>
     <col min="15" max="15" width="13.875" customWidth="1"/>
@@ -1732,10 +1825,21 @@
       <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="P2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P3" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
@@ -1744,11 +1848,20 @@
       <c r="N4" t="s">
         <v>34</v>
       </c>
+      <c r="P4" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>2</v>
       </c>
+      <c r="N5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1768,8 +1881,11 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>120</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
       </c>
       <c r="O15" t="s">
         <v>90</v>
@@ -1798,12 +1914,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1942,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>121</v>
       </c>
@@ -1843,7 +1959,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -1871,7 +1987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +1998,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>129</v>
       </c>
@@ -1890,7 +2006,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>130</v>
       </c>
@@ -1898,12 +2014,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1913,7 +2029,7 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>144</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1922,10 +2038,13 @@
       <c r="J27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1934,7 +2053,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>15</v>
       </c>
@@ -1945,26 +2064,29 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>22</v>
       </c>
@@ -1981,10 +2103,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1996,113 +2118,118 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>23</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>127</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F62" t="s">
         <v>136</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I62" t="s">
         <v>137</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K62" t="s">
         <v>125</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N62" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2129,6 +2256,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F3A9FC-0035-493A-8770-5405DDDDCF78}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{6D9436A5-7501-4532-ADE1-FCBB2F968ACC}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{90460C2A-0478-4D1C-BC05-BE9F51363F05}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{516C23B3-08B9-4117-89B2-976E4A4F2960}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0A54A-91A3-4E39-A25C-719811B0498E}">
   <dimension ref="A1:D20"/>
   <sheetViews>
